--- a/email.xlsx
+++ b/email.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">Emails</t>
   </si>
@@ -28,22 +28,16 @@
     <t xml:space="preserve">Names</t>
   </si>
   <si>
-    <t xml:space="preserve">atulanand.jha@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atul Anand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">atul.anand@sumerusolutions.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atul Jha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kishlay.raj@sumerusolutions.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kishlay Raj</t>
+    <t xml:space="preserve">abc.123@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">baba.blackship@yahoo.co.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">baba blackship</t>
   </si>
 </sst>
 </file>
@@ -217,10 +211,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -246,27 +240,19 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="atulanand.jha@gmail.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="atul.anand@sumerusolutions.com"/>
-    <hyperlink ref="A4" r:id="rId3" display="kishlay.raj@sumerusolutions.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="abc.123@gmail.com"/>
+    <hyperlink ref="A3" r:id="rId2" display="baba.blackship@yahoo.co.in"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
